--- a/ALGORYTMY/Testy.xlsx
+++ b/ALGORYTMY/Testy.xlsx
@@ -9,24 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Insertion sort" sheetId="1" r:id="rId1"/>
     <sheet name="Shell sort" sheetId="2" r:id="rId2"/>
-    <sheet name="Selection sort" sheetId="3" r:id="rId3"/>
+    <sheet name="Heap sort" sheetId="3" r:id="rId3"/>
+    <sheet name="Selection sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Quick sort (right pivot)" sheetId="5" r:id="rId5"/>
+    <sheet name="Quick sort (random pivot)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="21">
   <si>
     <t>Insertion sort</t>
   </si>
   <si>
-    <t>Iłość elementów</t>
+    <t>Ilość elementów</t>
+  </si>
+  <si>
+    <t>Ilość operacji</t>
   </si>
   <si>
     <t>Czas wykonania testów</t>
@@ -36,6 +42,21 @@
   </si>
   <si>
     <t>Shell sort</t>
+  </si>
+  <si>
+    <t>Iłość elementów</t>
+  </si>
+  <si>
+    <t>Heap sort</t>
+  </si>
+  <si>
+    <t>Selection sort</t>
+  </si>
+  <si>
+    <t>Quick sort (right pivot)</t>
+  </si>
+  <si>
+    <t>Quick sort (random pivot)</t>
   </si>
   <si>
     <t>rosnący</t>
@@ -63,6 +84,9 @@
   </si>
   <si>
     <t>V_type</t>
+  </si>
+  <si>
+    <t>Randomny</t>
   </si>
 </sst>
 </file>
@@ -157,7 +181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Insertion sort'!$C$3</c:f>
+              <c:f>'Insertion sort'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +234,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Insertion sort'!$B$3:$B$12</c:f>
+              <c:f>'Insertion sort'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -221,28 +245,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9968910217285091E-4</c:v>
+                  <c:v>9.99212265014648E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9945068359375E-4</c:v>
+                  <c:v>1.9984245300292899E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9.99212265014648E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9.9897384643554601E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9945068359375E-4</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9968910217285091E-4</c:v>
+                  <c:v>1.9981861114501901E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9989013671875E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9991397857665998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.9989013671875E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9986629486083902E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -250,7 +274,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5645-4249-9E1E-B4B8983D6F52}"/>
+              <c16:uniqueId val="{00000000-19D3-4935-B888-3D2C6BED6CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -259,7 +283,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Insertion sort'!$C$13</c:f>
+              <c:f>'Insertion sort'!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -312,39 +336,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Insertion sort'!$B$13:$B$22</c:f>
+              <c:f>'Insertion sort'!$C$13:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.100937366485595</c:v>
+                  <c:v>0.11492919921875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36377620697021401</c:v>
+                  <c:v>0.51368331909179599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87945795059204102</c:v>
+                  <c:v>1.1622829437255799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.52306008338928</c:v>
+                  <c:v>2.4714763164520201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7419853210449201</c:v>
+                  <c:v>3.4398806095123202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9361805915832502</c:v>
+                  <c:v>4.9869325160980198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2024569511413503</c:v>
+                  <c:v>6.2169485092162997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9253473281860298</c:v>
+                  <c:v>9.3564646244049001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3961818218231201</c:v>
+                  <c:v>9.8813242912292392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.301767826080299</c:v>
+                  <c:v>12.344999074935901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,7 +376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5645-4249-9E1E-B4B8983D6F52}"/>
+              <c16:uniqueId val="{00000001-19D3-4935-B888-3D2C6BED6CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -361,7 +385,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Insertion sort'!$C$23</c:f>
+              <c:f>'Insertion sort'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -414,39 +438,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Insertion sort'!$B$23:$B$32</c:f>
+              <c:f>'Insertion sort'!$C$23:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.4964542388916002E-2</c:v>
+                  <c:v>6.0962200164794901E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188889265060424</c:v>
+                  <c:v>0.22186255455017001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.447251796722412</c:v>
+                  <c:v>0.55665707588195801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.773961782455444</c:v>
+                  <c:v>1.0553493499755799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1781589984893699</c:v>
+                  <c:v>1.62599778175354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7786657810211099</c:v>
+                  <c:v>2.1726605892181299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8649778366088801</c:v>
+                  <c:v>3.0421264171600302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5875387191772399</c:v>
+                  <c:v>3.7446923255920401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8469038009643501</c:v>
+                  <c:v>4.7070984840393004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2267990112304599</c:v>
+                  <c:v>5.9883086681365896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,7 +478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5645-4249-9E1E-B4B8983D6F52}"/>
+              <c16:uniqueId val="{00000002-19D3-4935-B888-3D2C6BED6CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -463,7 +487,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Insertion sort'!$C$33</c:f>
+              <c:f>'Insertion sort'!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -516,39 +540,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Insertion sort'!$B$33:$B$42</c:f>
+              <c:f>'Insertion sort'!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.7969102859497001E-2</c:v>
+                  <c:v>5.4966926574706997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21486687660217199</c:v>
+                  <c:v>0.227858066558837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47170948982238697</c:v>
+                  <c:v>0.52367687225341797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83236265182495095</c:v>
+                  <c:v>1.13130259513854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1858153343200599</c:v>
+                  <c:v>1.54005026817321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.73573017120361</c:v>
+                  <c:v>2.2426199913024898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.51626420021057</c:v>
+                  <c:v>3.00015091896057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2581806182861301</c:v>
+                  <c:v>4.6691203117370597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1407685279846103</c:v>
+                  <c:v>5.5315921306610099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8790268898010201</c:v>
+                  <c:v>6.2411539554595903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5645-4249-9E1E-B4B8983D6F52}"/>
+              <c16:uniqueId val="{00000003-19D3-4935-B888-3D2C6BED6CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -565,7 +589,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Insertion sort'!$C$43</c:f>
+              <c:f>'Insertion sort'!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -618,39 +642,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Insertion sort'!$B$43:$B$52</c:f>
+              <c:f>'Insertion sort'!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5965185165405197E-2</c:v>
+                  <c:v>5.5964708328247001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19687700271606401</c:v>
+                  <c:v>0.2498459815979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47639536857604903</c:v>
+                  <c:v>0.59063696861267001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77752041816711404</c:v>
+                  <c:v>0.95241069793701105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3092284202575599</c:v>
+                  <c:v>1.59002017974853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.74583745002746</c:v>
+                  <c:v>2.3535482883453298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3696725368499698</c:v>
+                  <c:v>3.1860370635986301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2632780075073198</c:v>
+                  <c:v>3.9485669136047301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.13425493240356</c:v>
+                  <c:v>5.3866796493530202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5996749401092503</c:v>
+                  <c:v>6.62591481208801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +682,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5645-4249-9E1E-B4B8983D6F52}"/>
+              <c16:uniqueId val="{00000004-19D3-4935-B888-3D2C6BED6CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -681,6 +705,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -700,6 +726,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -733,10 +760,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="112"/>
+      <c14:style val="110"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="12"/>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -809,34 +836,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.997802734375E-3</c:v>
+                  <c:v>9.99212265014648E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9958438873290998E-3</c:v>
+                  <c:v>2.9976367950439401E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9933872222900304E-3</c:v>
+                  <c:v>6.9935321807861302E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6989469528198201E-2</c:v>
+                  <c:v>6.9952011108398403E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6989707946777299E-2</c:v>
+                  <c:v>1.5992164611816399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2985935211181599E-2</c:v>
+                  <c:v>1.0992288589477499E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5983572006225499E-2</c:v>
+                  <c:v>1.19919776916503E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.59897804260253E-2</c:v>
+                  <c:v>1.5988349914550701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8980970382690398E-2</c:v>
+                  <c:v>1.8990278244018499E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4978628158569301E-2</c:v>
+                  <c:v>1.8988132476806599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8934-4DD4-9292-B360F121313C}"/>
+              <c16:uniqueId val="{00000000-35AA-48E9-B483-50137F608A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -911,34 +938,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9964656829833898E-3</c:v>
+                  <c:v>2.99835205078125E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0993480682373E-2</c:v>
+                  <c:v>4.9965381622314401E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.99880599975585E-2</c:v>
+                  <c:v>7.9953670501708898E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7989397048950102E-2</c:v>
+                  <c:v>1.2991666793823201E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2984266281127898E-2</c:v>
+                  <c:v>1.5990018844604399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9981136322021401E-2</c:v>
+                  <c:v>1.8987894058227501E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6976575851440402E-2</c:v>
+                  <c:v>2.1986246109008699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1974544525146401E-2</c:v>
+                  <c:v>2.6983022689819301E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5965185165405197E-2</c:v>
+                  <c:v>3.1980276107788003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.19678592681884E-2</c:v>
+                  <c:v>4.5971632003784103E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +973,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8934-4DD4-9292-B360F121313C}"/>
+              <c16:uniqueId val="{00000001-35AA-48E9-B483-50137F608A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,31 +1043,31 @@
                   <c:v>1.9986629486083902E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9959888458251901E-3</c:v>
+                  <c:v>6.9952011108398403E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9945793151855399E-3</c:v>
+                  <c:v>1.19924545288085E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2991428375244101E-2</c:v>
+                  <c:v>1.39915943145751E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6983737945556599E-2</c:v>
+                  <c:v>1.5990495681762602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0986557006835899E-2</c:v>
+                  <c:v>1.8986940383911102E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0987033843994099E-2</c:v>
+                  <c:v>1.8988370895385701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3987054824829102E-2</c:v>
+                  <c:v>2.1986722946166899E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.84907817840576E-2</c:v>
+                  <c:v>3.99744510650634E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2978773117065402E-2</c:v>
+                  <c:v>2.7982711791992101E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1075,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8934-4DD4-9292-B360F121313C}"/>
+              <c16:uniqueId val="{00000002-35AA-48E9-B483-50137F608A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1115,34 +1142,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9996166229247999E-3</c:v>
+                  <c:v>1.9986629486083902E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9967765808105399E-3</c:v>
+                  <c:v>3.9975643157958898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19931697845458E-2</c:v>
+                  <c:v>5.9955120086669896E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0992527008056601E-2</c:v>
+                  <c:v>8.9941024780273403E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2991189956664999E-2</c:v>
+                  <c:v>1.29928588867187E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8988609313964799E-2</c:v>
+                  <c:v>1.7987728118896401E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2984504699707E-2</c:v>
+                  <c:v>2.9981136322021401E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4973373413085903E-2</c:v>
+                  <c:v>2.19864845275878E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3982038497924798E-2</c:v>
+                  <c:v>4.5971870422363198E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5970916748046799E-2</c:v>
+                  <c:v>4.4969558715820299E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +1177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8934-4DD4-9292-B360F121313C}"/>
+              <c16:uniqueId val="{00000003-35AA-48E9-B483-50137F608A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,31 +1247,31 @@
                   <c:v>2.9976367950439401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9948177337646398E-3</c:v>
+                  <c:v>8.9955329895019497E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991926193237301E-2</c:v>
+                  <c:v>1.5989303588867101E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2985696792602501E-2</c:v>
+                  <c:v>1.7988920211791899E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6971082687377902E-2</c:v>
+                  <c:v>2.4984598159790001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0980348587036102E-2</c:v>
+                  <c:v>2.9981613159179601E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3973445892333901E-2</c:v>
+                  <c:v>3.49783897399902E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0968408584594699E-2</c:v>
+                  <c:v>5.19688129425048E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9475431442260701E-2</c:v>
+                  <c:v>5.09686470031738E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7963848114013602E-2</c:v>
+                  <c:v>5.5966854095458901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8934-4DD4-9292-B360F121313C}"/>
+              <c16:uniqueId val="{00000004-35AA-48E9-B483-50137F608A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1275,6 +1302,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1294,6 +1323,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1320,19 +1350,2407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heap sort'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Increasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heap sort'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heap sort'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9982070922851502E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.19924545288085E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99880599975585E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6983261108398399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4978628158569301E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2973756790161098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9968719482421799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7963848114013602E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.69598579406738E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4954032897949205E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B0F-4EDF-A2D5-E755CAEF0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heap sort'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decreasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heap sort'!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heap sort'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.99725341796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09932422637939E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6989469528198201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2985458374023399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0980348587036102E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7975311279296799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4972658157348598E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0962200164794901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2956085205078097E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9955825805663993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B0F-4EDF-A2D5-E755CAEF0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heap sort'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heap sort'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heap sort'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9970149993896398E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09930038452148E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6991376876830999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3984432220458901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9981613159179601E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7976741790771401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7971248626708901E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.19678592681884E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8964729309081997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7957162857055595E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B0F-4EDF-A2D5-E755CAEF0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heap sort'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heap sort'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heap sort'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9974918365478498E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2990951538085899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.79831886291503E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6976099014282199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3972730636596603E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.69708442687988E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.49554634094238E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5964469909667899E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2961816787719699E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0957183837890597E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B0F-4EDF-A2D5-E755CAEF0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Heap sort'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Randomny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Heap sort'!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Heap sort'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9962997436523403E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09932422637939E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.89893245697021E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5984764099121E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1980276107788003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9975166320800698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.69708442687988E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.59656620025634E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4954519271850503E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9945554733276298E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B0F-4EDF-A2D5-E755CAEF0508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection sort'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Increasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Selection sort'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Selection sort'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4972419738769497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21986436843872001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434731245040893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80450677871704102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1722760200500399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.78689885139465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3905260562896702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1200759410858101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0854821205139098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7230894565582204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E0A-4822-B424-FBB7BC1B6ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection sort'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decreasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Selection sort'!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Selection sort'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4966688156127902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.226859331130981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56165409088134699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98539209365844704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5490460395812899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1466763019561701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9821612834930402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.84563040733337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6931076049804599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7864344120025599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E0A-4822-B424-FBB7BC1B6ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection sort'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Selection sort'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Selection sort'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8968791961669901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19887709617614699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44772410392761203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87046360969543402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24823021888732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.80988574028015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4095149040222101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2789781093597399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2313930988311697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6801154613494802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E0A-4822-B424-FBB7BC1B6ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection sort'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Selection sort'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Selection sort'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9969673156738198E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20087480545043901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46771287918090798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83948254585266102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2872056961059499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.81188464164733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.56042027473449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3489367961883501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3703060150146396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2597582340240399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E0A-4822-B424-FBB7BC1B6ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection sort'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>randomny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Selection sort'!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Selection sort'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4973373413085903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.182888507843017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47171235084533603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74454998970031705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.15728664398193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7319324016571001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1766593456268302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9941525459289502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6297645568847599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3772995471954301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E0A-4822-B424-FBB7BC1B6ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (right pivot)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Increasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.99844551086425E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99863910675048E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7977933883666902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9958209991454995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120922803878784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16190075874328599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22586250305175701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30980920791625899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.376765966415405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49069714546203602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CA3-4644-BF89-03ED5C9F115A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (right pivot)'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decreasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9984245300292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39925479888916E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99804210662841E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5966854095458901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4940185546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12292456626892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.169904470443725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.212860822677612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.244848728179931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30081558227539001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CA3-4644-BF89-03ED5C9F115A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (right pivot)'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9992752075195291E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9981861114501901E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9969425201415998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9959888458251901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8987894058227501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2985935211181599E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.69827842712402E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6983261108398399E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0974617004394497E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4954032897949205E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CA3-4644-BF89-03ED5C9F115A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (right pivot)'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9991397857665998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.99615478515625E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8988132476806599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49783897399902E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4966211318969699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8951358795166002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11692762374877901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14391160011291501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.184886693954467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22985887527465801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2CA3-4644-BF89-03ED5C9F115A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (right pivot)'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>randomny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (right pivot)'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.987354278564451E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9945068359375E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.99954414367675E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9989013671875E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9978752136230399E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9973258972167899E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9973258972167899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9951076507568299E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9962272644042899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2CA3-4644-BF89-03ED5C9F115A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (random pivot)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Increasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9984245300292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9986629486083902E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9991397857665998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9975643157958898E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9970874786376901E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9962997436523403E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9962272644042899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9969425201415998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9959888458251901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4420-49C3-A48E-9DBB9C9E6FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (random pivot)'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decreasing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$A$13:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$B$13:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9989013671875E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9984245300292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9991397857665998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9981136322021402E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9970874786376901E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9970149993896398E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9952011108398403E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9945793151855399E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9937915802001901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4420-49C3-A48E-9DBB9C9E6FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (random pivot)'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0001659393310499E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9981861114501901E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9991397857665998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9970874786376901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9973258972167899E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.99725341796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9959888458251901E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.99615478515625E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9964656829833898E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9954395294189401E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4420-49C3-A48E-9DBB9C9E6FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (random pivot)'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9968910217285091E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.987354278564451E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9993782043457001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9984245300292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.01241874694824E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9829483032226502E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9967765808105399E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9952735900878898E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9954395294189401E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9966316223144497E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4420-49C3-A48E-9DBB9C9E6FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quick sort (random pivot)'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>randomny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quick sort (random pivot)'!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.987354278564451E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9986629486083902E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9978752136230399E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9968490600585903E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9979686737060504E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9956779479980399E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9947967529296797E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9962272644042899E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9953670501708898E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4420-49C3-A48E-9DBB9C9E6FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1359,16 +3777,156 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1677,23 +4235,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1703,555 +4261,708 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3000</v>
       </c>
-      <c r="B5" s="3">
-        <v>9.9968910217285091E-4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.99212265014648E-4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4000</v>
       </c>
-      <c r="B6" s="3">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.9984245300292899E-3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5000</v>
       </c>
-      <c r="B7" s="3">
-        <v>9.9897384643554601E-4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.99212265014648E-4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6000</v>
       </c>
-      <c r="B8" s="3">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.9897384643554601E-4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7000</v>
       </c>
-      <c r="B9" s="3">
-        <v>9.9968910217285091E-4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9981861114501901E-3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.9989013671875E-3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9000</v>
       </c>
-      <c r="B11" s="3">
-        <v>1.9989013671875E-3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.9991397857665998E-3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10000</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.9986629486083902E-3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.9989013671875E-3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1000</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.100937366485595</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>499500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.11492919921875</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2000</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.36377620697021401</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1999000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51368331909179599</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3000</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.87945795059204102</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>4498500</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.1622829437255799</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4000</v>
       </c>
-      <c r="B16" s="3">
-        <v>1.52306008338928</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>7998000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.4714763164520201</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5000</v>
       </c>
-      <c r="B17" s="3">
-        <v>2.7419853210449201</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>12497500</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.4398806095123202</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6000</v>
       </c>
-      <c r="B18" s="3">
-        <v>3.9361805915832502</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>17997000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.9869325160980198</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7000</v>
       </c>
-      <c r="B19" s="3">
-        <v>5.2024569511413503</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>24496500</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.2169485092162997</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8000</v>
       </c>
-      <c r="B20" s="3">
-        <v>6.9253473281860298</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>31996000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.3564646244049001</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9000</v>
       </c>
-      <c r="B21" s="3">
-        <v>8.3961818218231201</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>40495500</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.8813242912292392</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10000</v>
       </c>
-      <c r="B22" s="3">
-        <v>10.301767826080299</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>49995000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12.344999074935901</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1000</v>
       </c>
-      <c r="B23" s="3">
-        <v>5.4964542388916002E-2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>250000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6.0962200164794901E-2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2000</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.188889265060424</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.22186255455017001</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3000</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.447251796722412</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2250000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.55665707588195801</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4000</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.773961782455444</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.0553493499755799</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5000</v>
       </c>
-      <c r="B27" s="3">
-        <v>1.1781589984893699</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>6250000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.62599778175354</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6000</v>
       </c>
-      <c r="B28" s="3">
-        <v>1.7786657810211099</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.1726605892181299</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7000</v>
       </c>
-      <c r="B29" s="3">
-        <v>2.8649778366088801</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>12250000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.0421264171600302</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8000</v>
       </c>
-      <c r="B30" s="3">
-        <v>3.5875387191772399</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.7446923255920401</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9000</v>
       </c>
-      <c r="B31" s="3">
-        <v>4.8469038009643501</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>20250000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.7070984840393004</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10000</v>
       </c>
-      <c r="B32" s="3">
-        <v>5.2267990112304599</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5.9883086681365896</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1000</v>
       </c>
-      <c r="B33" s="3">
-        <v>4.7969102859497001E-2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>249500</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.4966926574706997E-2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2000</v>
       </c>
-      <c r="B34" s="3">
-        <v>0.21486687660217199</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>999000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.227858066558837</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>3000</v>
       </c>
-      <c r="B35" s="3">
-        <v>0.47170948982238697</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>2248500</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.52367687225341797</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4000</v>
       </c>
-      <c r="B36" s="3">
-        <v>0.83236265182495095</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>3998000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.13130259513854</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5000</v>
       </c>
-      <c r="B37" s="3">
-        <v>1.1858153343200599</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>6247500</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.54005026817321</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>6000</v>
       </c>
-      <c r="B38" s="3">
-        <v>1.73573017120361</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>8997000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.2426199913024898</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>7000</v>
       </c>
-      <c r="B39" s="3">
-        <v>2.51626420021057</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>12246500</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3.00015091896057</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>8000</v>
       </c>
-      <c r="B40" s="3">
-        <v>3.2581806182861301</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>15996000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.6691203117370597</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>9000</v>
       </c>
-      <c r="B41" s="3">
-        <v>4.1407685279846103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>20245500</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.5315921306610099</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10000</v>
       </c>
-      <c r="B42" s="3">
-        <v>4.8790268898010201</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>24995000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6.2411539554595903</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1000</v>
       </c>
-      <c r="B43" s="3">
-        <v>5.5965185165405197E-2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>244825</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.5964708328247001E-2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2000</v>
       </c>
-      <c r="B44" s="3">
-        <v>0.19687700271606401</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>1015284</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.2498459815979</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>3000</v>
       </c>
-      <c r="B45" s="3">
-        <v>0.47639536857604903</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>2264063</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.59063696861267001</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4000</v>
       </c>
-      <c r="B46" s="3">
-        <v>0.77752041816711404</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>3871266</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.95241069793701105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>5000</v>
       </c>
-      <c r="B47" s="3">
-        <v>1.3092284202575599</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>6183134</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.59002017974853</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>6000</v>
       </c>
-      <c r="B48" s="3">
-        <v>1.74583745002746</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>8993156</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2.3535482883453298</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>7000</v>
       </c>
-      <c r="B49" s="3">
-        <v>2.3696725368499698</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>12218059</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3.1860370635986301</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>8000</v>
       </c>
-      <c r="B50" s="3">
-        <v>3.2632780075073198</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>15702154</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.9485669136047301</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9000</v>
       </c>
-      <c r="B51" s="3">
-        <v>5.13425493240356</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>20295760</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5.3866796493530202</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>10000</v>
       </c>
-      <c r="B52" s="3">
-        <v>5.5996749401092503</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
+      <c r="B52" s="2">
+        <v>24994765</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6.62591481208801</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2264,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,18 +4986,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +5005,10 @@
         <v>1000</v>
       </c>
       <c r="B3" s="3">
-        <v>3.997802734375E-3</v>
+        <v>9.99212265014648E-4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +5016,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="3">
-        <v>7.9958438873290998E-3</v>
+        <v>2.9976367950439401E-3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +5027,10 @@
         <v>3000</v>
       </c>
       <c r="B5" s="3">
-        <v>8.9933872222900304E-3</v>
+        <v>6.9935321807861302E-3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +5038,10 @@
         <v>4000</v>
       </c>
       <c r="B6" s="3">
-        <v>1.6989469528198201E-2</v>
+        <v>6.9952011108398403E-3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +5049,10 @@
         <v>5000</v>
       </c>
       <c r="B7" s="3">
-        <v>1.6989707946777299E-2</v>
+        <v>1.5992164611816399E-2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +5060,10 @@
         <v>6000</v>
       </c>
       <c r="B8" s="3">
-        <v>2.2985935211181599E-2</v>
+        <v>1.0992288589477499E-2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +5071,10 @@
         <v>7000</v>
       </c>
       <c r="B9" s="3">
-        <v>2.5983572006225499E-2</v>
+        <v>1.19919776916503E-2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +5082,10 @@
         <v>8000</v>
       </c>
       <c r="B10" s="3">
-        <v>1.59897804260253E-2</v>
+        <v>1.5988349914550701E-2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +5093,10 @@
         <v>9000</v>
       </c>
       <c r="B11" s="3">
-        <v>2.8980970382690398E-2</v>
+        <v>1.8990278244018499E-2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +5104,10 @@
         <v>10000</v>
       </c>
       <c r="B12" s="3">
-        <v>3.4978628158569301E-2</v>
+        <v>1.8988132476806599E-2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +5115,10 @@
         <v>1000</v>
       </c>
       <c r="B13" s="3">
-        <v>5.9964656829833898E-3</v>
+        <v>2.99835205078125E-3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +5126,10 @@
         <v>2000</v>
       </c>
       <c r="B14" s="3">
-        <v>1.0993480682373E-2</v>
+        <v>4.9965381622314401E-3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +5137,10 @@
         <v>3000</v>
       </c>
       <c r="B15" s="3">
-        <v>1.99880599975585E-2</v>
+        <v>7.9953670501708898E-3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +5148,10 @@
         <v>4000</v>
       </c>
       <c r="B16" s="3">
-        <v>1.7989397048950102E-2</v>
+        <v>1.2991666793823201E-2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +5159,10 @@
         <v>5000</v>
       </c>
       <c r="B17" s="3">
-        <v>2.2984266281127898E-2</v>
+        <v>1.5990018844604399E-2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +5170,10 @@
         <v>6000</v>
       </c>
       <c r="B18" s="3">
-        <v>2.9981136322021401E-2</v>
+        <v>1.8987894058227501E-2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +5181,10 @@
         <v>7000</v>
       </c>
       <c r="B19" s="3">
-        <v>3.6976575851440402E-2</v>
+        <v>2.1986246109008699E-2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +5192,10 @@
         <v>8000</v>
       </c>
       <c r="B20" s="3">
-        <v>4.1974544525146401E-2</v>
+        <v>2.6983022689819301E-2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +5203,10 @@
         <v>9000</v>
       </c>
       <c r="B21" s="3">
-        <v>5.5965185165405197E-2</v>
+        <v>3.1980276107788003E-2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +5214,10 @@
         <v>10000</v>
       </c>
       <c r="B22" s="3">
-        <v>5.19678592681884E-2</v>
+        <v>4.5971632003784103E-2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +5228,7 @@
         <v>1.9986629486083902E-3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +5236,10 @@
         <v>2000</v>
       </c>
       <c r="B24" s="3">
-        <v>5.9959888458251901E-3</v>
+        <v>6.9952011108398403E-3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +5247,10 @@
         <v>3000</v>
       </c>
       <c r="B25" s="3">
-        <v>8.9945793151855399E-3</v>
+        <v>1.19924545288085E-2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +5258,10 @@
         <v>4000</v>
       </c>
       <c r="B26" s="3">
-        <v>1.2991428375244101E-2</v>
+        <v>1.39915943145751E-2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +5269,10 @@
         <v>5000</v>
       </c>
       <c r="B27" s="3">
-        <v>2.6983737945556599E-2</v>
+        <v>1.5990495681762602E-2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +5280,10 @@
         <v>6000</v>
       </c>
       <c r="B28" s="3">
-        <v>2.0986557006835899E-2</v>
+        <v>1.8986940383911102E-2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +5291,10 @@
         <v>7000</v>
       </c>
       <c r="B29" s="3">
-        <v>2.0987033843994099E-2</v>
+        <v>1.8988370895385701E-2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +5302,10 @@
         <v>8000</v>
       </c>
       <c r="B30" s="3">
-        <v>2.3987054824829102E-2</v>
+        <v>2.1986722946166899E-2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +5313,10 @@
         <v>9000</v>
       </c>
       <c r="B31" s="3">
-        <v>2.84907817840576E-2</v>
+        <v>3.99744510650634E-2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +5324,10 @@
         <v>10000</v>
       </c>
       <c r="B32" s="3">
-        <v>3.2978773117065402E-2</v>
+        <v>2.7982711791992101E-2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +5335,10 @@
         <v>1000</v>
       </c>
       <c r="B33" s="3">
-        <v>1.9996166229247999E-3</v>
+        <v>1.9986629486083902E-3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +5346,10 @@
         <v>2000</v>
       </c>
       <c r="B34" s="3">
-        <v>4.9967765808105399E-3</v>
+        <v>3.9975643157958898E-3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +5357,10 @@
         <v>3000</v>
       </c>
       <c r="B35" s="3">
-        <v>1.19931697845458E-2</v>
+        <v>5.9955120086669896E-3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +5368,10 @@
         <v>4000</v>
       </c>
       <c r="B36" s="3">
-        <v>1.0992527008056601E-2</v>
+        <v>8.9941024780273403E-3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +5379,10 @@
         <v>5000</v>
       </c>
       <c r="B37" s="3">
-        <v>1.2991189956664999E-2</v>
+        <v>1.29928588867187E-2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +5390,10 @@
         <v>6000</v>
       </c>
       <c r="B38" s="3">
-        <v>1.8988609313964799E-2</v>
+        <v>1.7987728118896401E-2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +5401,10 @@
         <v>7000</v>
       </c>
       <c r="B39" s="3">
-        <v>2.2984504699707E-2</v>
+        <v>2.9981136322021401E-2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +5412,10 @@
         <v>8000</v>
       </c>
       <c r="B40" s="3">
-        <v>4.4973373413085903E-2</v>
+        <v>2.19864845275878E-2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +5423,10 @@
         <v>9000</v>
       </c>
       <c r="B41" s="3">
-        <v>3.3982038497924798E-2</v>
+        <v>4.5971870422363198E-2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +5434,10 @@
         <v>10000</v>
       </c>
       <c r="B42" s="3">
-        <v>4.5970916748046799E-2</v>
+        <v>4.4969558715820299E-2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,7 +5448,7 @@
         <v>2.9976367950439401E-3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +5456,10 @@
         <v>2000</v>
       </c>
       <c r="B44" s="3">
-        <v>8.9948177337646398E-3</v>
+        <v>8.9955329895019497E-3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +5467,10 @@
         <v>3000</v>
       </c>
       <c r="B45" s="3">
-        <v>1.5991926193237301E-2</v>
+        <v>1.5989303588867101E-2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +5478,10 @@
         <v>4000</v>
       </c>
       <c r="B46" s="3">
-        <v>2.2985696792602501E-2</v>
+        <v>1.7988920211791899E-2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +5489,10 @@
         <v>5000</v>
       </c>
       <c r="B47" s="3">
-        <v>4.6971082687377902E-2</v>
+        <v>2.4984598159790001E-2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +5500,10 @@
         <v>6000</v>
       </c>
       <c r="B48" s="3">
-        <v>3.0980348587036102E-2</v>
+        <v>2.9981613159179601E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +5511,10 @@
         <v>7000</v>
       </c>
       <c r="B49" s="3">
-        <v>4.3973445892333901E-2</v>
+        <v>3.49783897399902E-2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +5522,10 @@
         <v>8000</v>
       </c>
       <c r="B50" s="3">
-        <v>5.0968408584594699E-2</v>
+        <v>5.19688129425048E-2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +5533,10 @@
         <v>9000</v>
       </c>
       <c r="B51" s="3">
-        <v>4.9475431442260701E-2</v>
+        <v>5.09686470031738E-2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +5544,10 @@
         <v>10000</v>
       </c>
       <c r="B52" s="3">
-        <v>5.7963848114013602E-2</v>
+        <v>5.5966854095458901E-2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2847,12 +5558,2340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="F3:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.9982070922851502E-3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.19924545288085E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.99880599975585E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.6983261108398399E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.4978628158569301E-2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.2973756790161098E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4.9968719482421799E-2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.7963848114013602E-2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.69598579406738E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.4954032897949205E-2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.99725341796875E-3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.09932422637939E-2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.6989469528198201E-2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.2985458374023399E-2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.0980348587036102E-2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.7975311279296799E-2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.4972658157348598E-2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.0962200164794901E-2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7.2956085205078097E-2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.9955825805663993E-2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.9970149993896398E-3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.09930038452148E-2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.6991376876830999E-2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.3984432220458901E-2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.9981613159179601E-2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.7976741790771401E-2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4.7971248626708901E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.19678592681884E-2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.8964729309081997E-2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.7957162857055595E-2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.9974918365478498E-3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.2990951538085899E-2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2.79831886291503E-2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3.6976099014282199E-2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4.3972730636596603E-2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4.69708442687988E-2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7.49554634094238E-2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.5964469909667899E-2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.2961816787719699E-2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7.0957183837890597E-2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4.9962997436523403E-3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.09932422637939E-2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.89893245697021E-2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2.5984764099121E-2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.1980276107788003E-2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.9975166320800698E-2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4.69708442687988E-2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.59656620025634E-2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6.4954519271850503E-2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8.9945554733276298E-2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.4972419738769497E-2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.21986436843872001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.434731245040893</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80450677871704102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.1722760200500399</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.78689885139465</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.3905260562896702</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.1200759410858101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.0854821205139098</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.7230894565582204</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.4966688156127902E-2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.226859331130981</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.56165409088134699</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.98539209365844704</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.5490460395812899</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.1466763019561701</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.9821612834930402</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.84563040733337</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.6931076049804599</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.7864344120025599</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.8968791961669901E-2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.19887709617614699</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.44772410392761203</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.87046360969543402</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.24823021888732</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.80988574028015</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.4095149040222101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.2789781093597399</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.2313930988311697</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4.6801154613494802</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.9969673156738198E-2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.20087480545043901</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.46771287918090798</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.83948254585266102</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.2872056961059499</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.81188464164733</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2.56042027473449</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3.3489367961883501</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4.3703060150146396</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.2597582340240399</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4.4973373413085903E-2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.182888507843017</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.47171235084533603</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.74454998970031705</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.15728664398193</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.7319324016571001</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.1766593456268302</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2.9941525459289502</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.6297645568847599</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4.3772995471954301</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.99844551086425E-3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>400</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.99863910675048E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>600</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.7977933883666902E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>800</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.9958209991454995E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.120922803878784</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.16190075874328599</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.22586250305175701</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.30980920791625899</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.376765966415405</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49069714546203602</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.9984245300292899E-3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>400</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.39925479888916E-2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>600</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.99804210662841E-2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>800</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.5966854095458901E-2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.4940185546875E-2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.12292456626892</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.169904470443725</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.212860822677612</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.244848728179931</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.30081558227539001</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>200</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.9992752075195291E-4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>400</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.9981861114501901E-3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>600</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.9969425201415998E-3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>800</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.9959888458251901E-3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.8987894058227501E-2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.2985935211181599E-2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.69827842712402E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.6983261108398399E-2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.0974617004394497E-2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7.4954032897949205E-2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>200</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.9991397857665998E-3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>400</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.99615478515625E-3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>600</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.8988132476806599E-2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>800</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3.49783897399902E-2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5.4966211318969699E-2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7.8951358795166002E-2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.11692762374877901</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.14391160011291501</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.184886693954467</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.22985887527465801</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>200</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>400</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9.987354278564451E-4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>600</v>
+      </c>
+      <c r="B45" s="3">
+        <v>9.9945068359375E-4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>800</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2.99954414367675E-3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.9989013671875E-3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.9978752136230399E-3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3.9973258972167899E-3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3.9973258972167899E-3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4.9951076507568299E-3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.9962272644042899E-3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>400</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.9984245300292899E-3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>600</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.9986629486083902E-3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>800</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.9991397857665998E-3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.9975643157958898E-3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.9970874786376901E-3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4.9962997436523403E-3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.9962272644042899E-3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.9969425201415998E-3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.9959888458251901E-3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>400</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.9989013671875E-3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>600</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.9984245300292899E-3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>800</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.9991397857665998E-3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.9981136322021402E-3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.9970874786376901E-3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.9970149993896398E-3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.9952011108398403E-3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8.9945793151855399E-3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.9937915802001901E-3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>200</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.0001659393310499E-3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>400</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.9981861114501901E-3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>600</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.9991397857665998E-3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>800</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.9970874786376901E-3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.9973258972167899E-3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4.99725341796875E-3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5.9959888458251901E-3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.99615478515625E-3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.9964656829833898E-3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.9954395294189401E-3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>200</v>
+      </c>
+      <c r="B33" s="3">
+        <v>9.9968910217285091E-4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>400</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.987354278564451E-4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>600</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.9993782043457001E-3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>800</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.9984245300292899E-3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.01241874694824E-3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4.9829483032226502E-3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4.9967765808105399E-3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.9952735900878898E-3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.9954395294189401E-3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.9966316223144497E-3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>200</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>400</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9.987354278564451E-4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>600</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.9986629486083902E-3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>800</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2.9978752136230399E-3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.9968490600585903E-3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4.9979686737060504E-3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6.9956779479980399E-3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.9947967529296797E-3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.9962272644042899E-3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7.9953670501708898E-3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>